--- a/Registro de Cursos ITD.xlsx
+++ b/Registro de Cursos ITD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9FD007-BF71-2E44-B425-6A53ACAA52F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F491F8-3607-7B4B-85D1-D284F3CDE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17020" windowHeight="19500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cursos" sheetId="1" r:id="rId1"/>
     <sheet name="Departamentos" sheetId="2" r:id="rId2"/>
     <sheet name="Docentes" sheetId="4" r:id="rId3"/>
-    <sheet name="CURP" sheetId="6" r:id="rId4"/>
+    <sheet name="Curp" sheetId="6" r:id="rId4"/>
     <sheet name="Inscripciones" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -24,8 +24,8 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="EDUCACION_A_DISTANCIA" localSheetId="3">'[2]BD DOCENTES'!#REF!</definedName>
-    <definedName name="EDUCACION_A_DISTANCIA">'[1]BD DOCENTES'!#REF!</definedName>
+    <definedName name="EDUCACION_A_DISTANCIA" localSheetId="3">'[1]BD DOCENTES'!#REF!</definedName>
+    <definedName name="EDUCACION_A_DISTANCIA">'[2]BD DOCENTES'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1862">
   <si>
     <t>NombreCurso</t>
   </si>
@@ -5628,6 +5628,9 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>EXTERNO</t>
   </si>
 </sst>
 </file>
@@ -5992,28 +5995,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="MAIL 25-MAR-25"/>
-      <sheetName val="CURP"/>
-      <sheetName val="BD DOCENTES"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="PARTICIPANTES Enero"/>
       <sheetName val="PARTICIPANTES Junio"/>
       <sheetName val="PARTICIPANTES Agosto"/>
@@ -6050,6 +6031,28 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="MAIL 25-MAR-25"/>
+      <sheetName val="CURP"/>
+      <sheetName val="BD DOCENTES"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6259,7 +6262,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6969,7 +6972,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>1861</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6984,7 +6989,7 @@
   <dimension ref="A1:C494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11530,7 +11535,7 @@
   <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -14879,128 +14884,134 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="3" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" ht="14">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="4"/>
     </row>
   </sheetData>

--- a/Registro de Cursos ITD.xlsx
+++ b/Registro de Cursos ITD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F491F8-3607-7B4B-85D1-D284F3CDE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A3356C-4B71-D04D-A341-79122383E9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17020" windowHeight="19500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17020" windowHeight="19500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursos" sheetId="1" r:id="rId1"/>
@@ -1586,9 +1586,6 @@
     <t>aftagliapietra@itdurango.edu.mx</t>
   </si>
   <si>
-    <t>alejandro.calderon@itdurangoo.edu.mx</t>
-  </si>
-  <si>
     <t>ALEJANDRO LUNA HURTADO</t>
   </si>
   <si>
@@ -5631,6 +5628,9 @@
   </si>
   <si>
     <t>EXTERNO</t>
+  </si>
+  <si>
+    <t>alejandro.calderon@itdurango.edu.mx</t>
   </si>
 </sst>
 </file>
@@ -5640,7 +5640,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5714,6 +5714,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5918,12 +5926,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5969,8 +5978,10 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{60D84392-2FE5-0D4E-B31E-D1B98156E98E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CEDAC487-A4BF-7F4B-84F6-4F8F69240115}"/>
@@ -6973,7 +6984,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
   </sheetData>
@@ -6988,8 +6999,8 @@
   </sheetPr>
   <dimension ref="A1:C494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7003,7 +7014,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -7118,17 +7129,17 @@
       <c r="A14" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>513</v>
+      <c r="B14" s="39" t="s">
+        <v>1861</v>
       </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>514</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>515</v>
       </c>
       <c r="C15" s="20"/>
     </row>
@@ -7137,25 +7148,25 @@
         <v>266</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>518</v>
       </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>519</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>520</v>
       </c>
       <c r="C18" s="20"/>
     </row>
@@ -7164,7 +7175,7 @@
         <v>134</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" s="20"/>
     </row>
@@ -7173,7 +7184,7 @@
         <v>195</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C20" s="20"/>
     </row>
@@ -7182,7 +7193,7 @@
         <v>349</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C21" s="20"/>
     </row>
@@ -7191,16 +7202,16 @@
         <v>350</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>525</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>526</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -7209,7 +7220,7 @@
         <v>351</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C24" s="20"/>
     </row>
@@ -7218,7 +7229,7 @@
         <v>311</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C25" s="20"/>
     </row>
@@ -7227,7 +7238,7 @@
         <v>196</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C26" s="20"/>
     </row>
@@ -7236,7 +7247,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C27" s="20"/>
     </row>
@@ -7245,7 +7256,7 @@
         <v>431</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C28" s="20"/>
     </row>
@@ -7254,7 +7265,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" s="20"/>
     </row>
@@ -7263,7 +7274,7 @@
         <v>312</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="20"/>
     </row>
@@ -7272,7 +7283,7 @@
         <v>199</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -7281,7 +7292,7 @@
         <v>352</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -7290,7 +7301,7 @@
         <v>432</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -7299,7 +7310,7 @@
         <v>200</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C34" s="20"/>
     </row>
@@ -7308,7 +7319,7 @@
         <v>433</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C35" s="20"/>
     </row>
@@ -7317,7 +7328,7 @@
         <v>136</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C36" s="20"/>
     </row>
@@ -7326,16 +7337,16 @@
         <v>434</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>541</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>542</v>
       </c>
       <c r="C38" s="20"/>
     </row>
@@ -7344,16 +7355,16 @@
         <v>73</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>544</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>545</v>
       </c>
       <c r="C40" s="20"/>
     </row>
@@ -7362,7 +7373,7 @@
         <v>202</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C41" s="20"/>
     </row>
@@ -7371,7 +7382,7 @@
         <v>313</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C42" s="20"/>
     </row>
@@ -7380,16 +7391,16 @@
         <v>353</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="C44" s="20"/>
     </row>
@@ -7398,7 +7409,7 @@
         <v>314</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C45" s="20"/>
     </row>
@@ -7407,16 +7418,16 @@
         <v>315</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>553</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>554</v>
       </c>
       <c r="C47" s="20"/>
     </row>
@@ -7425,7 +7436,7 @@
         <v>267</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C48" s="20"/>
     </row>
@@ -7434,16 +7445,16 @@
         <v>137</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>557</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>558</v>
       </c>
       <c r="C50" s="20"/>
     </row>
@@ -7452,7 +7463,7 @@
         <v>354</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C51" s="20"/>
     </row>
@@ -7461,7 +7472,7 @@
         <v>435</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C52" s="20"/>
     </row>
@@ -7470,7 +7481,7 @@
         <v>493</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C53" s="20"/>
     </row>
@@ -7479,7 +7490,7 @@
         <v>494</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C54" s="20"/>
     </row>
@@ -7488,7 +7499,7 @@
         <v>355</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C55" s="20"/>
     </row>
@@ -7497,7 +7508,7 @@
         <v>138</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C56" s="20"/>
     </row>
@@ -7506,7 +7517,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C57" s="20"/>
     </row>
@@ -7515,7 +7526,7 @@
         <v>356</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C58" s="20"/>
     </row>
@@ -7524,7 +7535,7 @@
         <v>204</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C59" s="20"/>
     </row>
@@ -7533,7 +7544,7 @@
         <v>436</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C60" s="20"/>
     </row>
@@ -7542,7 +7553,7 @@
         <v>85</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C61" s="20"/>
     </row>
@@ -7551,7 +7562,7 @@
         <v>316</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C62" s="20"/>
     </row>
@@ -7560,7 +7571,7 @@
         <v>357</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C63" s="20"/>
     </row>
@@ -7569,7 +7580,7 @@
         <v>139</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C64" s="20"/>
     </row>
@@ -7578,7 +7589,7 @@
         <v>192</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" s="20"/>
     </row>
@@ -7587,7 +7598,7 @@
         <v>140</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C66" s="20"/>
     </row>
@@ -7596,7 +7607,7 @@
         <v>415</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C67" s="20"/>
     </row>
@@ -7605,7 +7616,7 @@
         <v>268</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C68" s="20"/>
     </row>
@@ -7614,7 +7625,7 @@
         <v>437</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C69" s="20"/>
     </row>
@@ -7623,7 +7634,7 @@
         <v>438</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C70" s="20"/>
     </row>
@@ -7632,7 +7643,7 @@
         <v>205</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C71" s="20"/>
     </row>
@@ -7641,7 +7652,7 @@
         <v>269</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C72" s="20"/>
     </row>
@@ -7650,7 +7661,7 @@
         <v>141</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C73" s="20"/>
     </row>
@@ -7659,7 +7670,7 @@
         <v>270</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C74" s="20"/>
     </row>
@@ -7668,7 +7679,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C75" s="20"/>
     </row>
@@ -7677,7 +7688,7 @@
         <v>87</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C76" s="20"/>
     </row>
@@ -7686,7 +7697,7 @@
         <v>142</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C77" s="20"/>
     </row>
@@ -7695,7 +7706,7 @@
         <v>358</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C78" s="20"/>
     </row>
@@ -7704,16 +7715,16 @@
         <v>439</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3" ht="14">
       <c r="A80" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>588</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>589</v>
       </c>
       <c r="C80" s="20"/>
     </row>
@@ -7722,7 +7733,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C81" s="20"/>
     </row>
@@ -7731,7 +7742,7 @@
         <v>207</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C82" s="20"/>
     </row>
@@ -7740,7 +7751,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C83" s="20"/>
     </row>
@@ -7749,7 +7760,7 @@
         <v>144</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C84" s="20"/>
     </row>
@@ -7758,7 +7769,7 @@
         <v>359</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C85" s="20"/>
     </row>
@@ -7767,7 +7778,7 @@
         <v>479</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C86" s="20"/>
     </row>
@@ -7776,7 +7787,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C87" s="20"/>
     </row>
@@ -7785,16 +7796,16 @@
         <v>208</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C88" s="20"/>
     </row>
     <row r="89" spans="1:3" ht="14">
       <c r="A89" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>599</v>
       </c>
       <c r="C89" s="20"/>
     </row>
@@ -7803,7 +7814,7 @@
         <v>480</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C90" s="20"/>
     </row>
@@ -7812,7 +7823,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C91" s="20"/>
     </row>
@@ -7821,7 +7832,7 @@
         <v>271</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C92" s="20"/>
     </row>
@@ -7830,7 +7841,7 @@
         <v>440</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C93" s="20"/>
     </row>
@@ -7839,7 +7850,7 @@
         <v>360</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C94" s="20"/>
     </row>
@@ -7848,7 +7859,7 @@
         <v>416</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C95" s="20"/>
     </row>
@@ -7857,7 +7868,7 @@
         <v>209</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96" s="20"/>
     </row>
@@ -7866,16 +7877,16 @@
         <v>272</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:3" ht="14">
       <c r="A98" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>608</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="C98" s="20"/>
     </row>
@@ -7884,7 +7895,7 @@
         <v>417</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C99" s="20"/>
     </row>
@@ -7893,7 +7904,7 @@
         <v>210</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C100" s="20"/>
     </row>
@@ -7902,7 +7913,7 @@
         <v>441</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C101" s="20"/>
     </row>
@@ -7911,7 +7922,7 @@
         <v>211</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C102" s="20"/>
     </row>
@@ -7920,7 +7931,7 @@
         <v>212</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C103" s="20"/>
     </row>
@@ -7929,7 +7940,7 @@
         <v>361</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C104" s="20"/>
     </row>
@@ -7938,7 +7949,7 @@
         <v>273</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C105" s="20"/>
     </row>
@@ -7947,25 +7958,25 @@
         <v>362</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C106" s="20"/>
     </row>
     <row r="107" spans="1:3" ht="14">
       <c r="A107" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>619</v>
       </c>
       <c r="C107" s="20"/>
     </row>
     <row r="108" spans="1:3" ht="14">
       <c r="A108" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>620</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>621</v>
       </c>
       <c r="C108" s="20"/>
     </row>
@@ -7974,7 +7985,7 @@
         <v>90</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C109" s="20"/>
     </row>
@@ -7983,7 +7994,7 @@
         <v>363</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C110" s="20"/>
     </row>
@@ -7992,7 +8003,7 @@
         <v>442</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C111" s="20"/>
     </row>
@@ -8001,7 +8012,7 @@
         <v>146</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C112" s="20"/>
     </row>
@@ -8010,7 +8021,7 @@
         <v>91</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C113" s="20"/>
     </row>
@@ -8019,7 +8030,7 @@
         <v>147</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C114" s="20"/>
     </row>
@@ -8028,7 +8039,7 @@
         <v>92</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C115" s="20"/>
     </row>
@@ -8037,7 +8048,7 @@
         <v>93</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C116" s="20"/>
     </row>
@@ -8046,7 +8057,7 @@
         <v>148</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C117" s="20"/>
     </row>
@@ -8055,7 +8066,7 @@
         <v>213</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C118" s="20"/>
     </row>
@@ -8064,7 +8075,7 @@
         <v>443</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C119" s="20"/>
     </row>
@@ -8073,7 +8084,7 @@
         <v>309</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C120" s="20"/>
     </row>
@@ -8082,25 +8093,25 @@
         <v>214</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C121" s="20"/>
     </row>
     <row r="122" spans="1:3" ht="14">
       <c r="A122" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>635</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>636</v>
       </c>
       <c r="C122" s="20"/>
     </row>
     <row r="123" spans="1:3" ht="14">
       <c r="A123" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="C123" s="20"/>
     </row>
@@ -8109,7 +8120,7 @@
         <v>364</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C124" s="20"/>
     </row>
@@ -8118,7 +8129,7 @@
         <v>418</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C125" s="20"/>
     </row>
@@ -8127,7 +8138,7 @@
         <v>317</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C126" s="20"/>
     </row>
@@ -8136,7 +8147,7 @@
         <v>149</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C127" s="20"/>
     </row>
@@ -8145,7 +8156,7 @@
         <v>150</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C128" s="20"/>
     </row>
@@ -8154,7 +8165,7 @@
         <v>485</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C129" s="20"/>
     </row>
@@ -8163,7 +8174,7 @@
         <v>215</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C130" s="20"/>
     </row>
@@ -8172,7 +8183,7 @@
         <v>444</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C131" s="20"/>
     </row>
@@ -8181,7 +8192,7 @@
         <v>365</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C132" s="20"/>
     </row>
@@ -8190,7 +8201,7 @@
         <v>151</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C133" s="20"/>
     </row>
@@ -8199,7 +8210,7 @@
         <v>445</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C134" s="20"/>
     </row>
@@ -8208,7 +8219,7 @@
         <v>274</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C135" s="20"/>
     </row>
@@ -8217,7 +8228,7 @@
         <v>318</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C136" s="20"/>
     </row>
@@ -8226,7 +8237,7 @@
         <v>216</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C137" s="20"/>
     </row>
@@ -8235,7 +8246,7 @@
         <v>419</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C138" s="20"/>
     </row>
@@ -8244,7 +8255,7 @@
         <v>319</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C139" s="20"/>
     </row>
@@ -8253,7 +8264,7 @@
         <v>275</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C140" s="20"/>
     </row>
@@ -8262,7 +8273,7 @@
         <v>446</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C141" s="20"/>
     </row>
@@ -8271,7 +8282,7 @@
         <v>153</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C142" s="20"/>
     </row>
@@ -8280,7 +8291,7 @@
         <v>217</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C143" s="20"/>
     </row>
@@ -8289,7 +8300,7 @@
         <v>366</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C144" s="20"/>
     </row>
@@ -8298,7 +8309,7 @@
         <v>447</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C145" s="20"/>
     </row>
@@ -8307,7 +8318,7 @@
         <v>367</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C146" s="20"/>
     </row>
@@ -8316,7 +8327,7 @@
         <v>483</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C147" s="20"/>
     </row>
@@ -8325,7 +8336,7 @@
         <v>94</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C148" s="20"/>
     </row>
@@ -8334,7 +8345,7 @@
         <v>218</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C149" s="20"/>
     </row>
@@ -8343,7 +8354,7 @@
         <v>448</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C150" s="20"/>
     </row>
@@ -8352,7 +8363,7 @@
         <v>276</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C151" s="20"/>
     </row>
@@ -8361,7 +8372,7 @@
         <v>219</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C152" s="20"/>
     </row>
@@ -8370,7 +8381,7 @@
         <v>368</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C153" s="20"/>
     </row>
@@ -8379,7 +8390,7 @@
         <v>320</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C154" s="20"/>
     </row>
@@ -8388,7 +8399,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C155" s="20"/>
     </row>
@@ -8397,7 +8408,7 @@
         <v>369</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C156" s="20"/>
     </row>
@@ -8406,7 +8417,7 @@
         <v>96</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C157" s="20"/>
     </row>
@@ -8415,16 +8426,16 @@
         <v>97</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C158" s="20"/>
     </row>
     <row r="159" spans="1:3" ht="14">
       <c r="A159" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="B159" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>675</v>
       </c>
       <c r="C159" s="20"/>
     </row>
@@ -8433,16 +8444,16 @@
         <v>155</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C160" s="20"/>
     </row>
     <row r="161" spans="1:3" ht="14">
       <c r="A161" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="B161" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>678</v>
       </c>
       <c r="C161" s="20"/>
     </row>
@@ -8451,7 +8462,7 @@
         <v>449</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C162" s="20"/>
     </row>
@@ -8460,7 +8471,7 @@
         <v>220</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C163" s="20"/>
     </row>
@@ -8469,7 +8480,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C164" s="20"/>
     </row>
@@ -8478,7 +8489,7 @@
         <v>99</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C165" s="20"/>
     </row>
@@ -8487,7 +8498,7 @@
         <v>490</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C166" s="20"/>
     </row>
@@ -8496,7 +8507,7 @@
         <v>370</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C167" s="20"/>
     </row>
@@ -8505,7 +8516,7 @@
         <v>221</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C168" s="20"/>
     </row>
@@ -8514,7 +8525,7 @@
         <v>100</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C169" s="20"/>
     </row>
@@ -8523,7 +8534,7 @@
         <v>157</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C170" s="20"/>
     </row>
@@ -8532,7 +8543,7 @@
         <v>478</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C171" s="20"/>
     </row>
@@ -8541,7 +8552,7 @@
         <v>222</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C172" s="20"/>
     </row>
@@ -8550,7 +8561,7 @@
         <v>223</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C173" s="20"/>
     </row>
@@ -8559,7 +8570,7 @@
         <v>101</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C174" s="20"/>
     </row>
@@ -8568,7 +8579,7 @@
         <v>224</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C175" s="20"/>
     </row>
@@ -8577,7 +8588,7 @@
         <v>225</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C176" s="20"/>
     </row>
@@ -8586,7 +8597,7 @@
         <v>371</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C177" s="20"/>
     </row>
@@ -8595,7 +8606,7 @@
         <v>457</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C178" s="20"/>
     </row>
@@ -8604,7 +8615,7 @@
         <v>226</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C179" s="20"/>
     </row>
@@ -8613,7 +8624,7 @@
         <v>321</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C180" s="20"/>
     </row>
@@ -8622,7 +8633,7 @@
         <v>227</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C181" s="20"/>
     </row>
@@ -8631,16 +8642,16 @@
         <v>322</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C182" s="20"/>
     </row>
     <row r="183" spans="1:3" ht="14">
       <c r="A183" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="B183" s="19" t="s">
         <v>700</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>701</v>
       </c>
       <c r="C183" s="20"/>
     </row>
@@ -8649,7 +8660,7 @@
         <v>450</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C184" s="20"/>
     </row>
@@ -8658,7 +8669,7 @@
         <v>102</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C185" s="20"/>
     </row>
@@ -8667,16 +8678,16 @@
         <v>103</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C186" s="20"/>
     </row>
     <row r="187" spans="1:3" ht="14">
       <c r="A187" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="B187" s="19" t="s">
         <v>705</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>706</v>
       </c>
       <c r="C187" s="20"/>
     </row>
@@ -8685,7 +8696,7 @@
         <v>323</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C188" s="20"/>
     </row>
@@ -8694,16 +8705,16 @@
         <v>324</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C189" s="20"/>
     </row>
     <row r="190" spans="1:3" ht="14">
       <c r="A190" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="B190" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>710</v>
       </c>
       <c r="C190" s="20"/>
     </row>
@@ -8712,7 +8723,7 @@
         <v>325</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C191" s="20"/>
     </row>
@@ -8721,7 +8732,7 @@
         <v>76</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C192" s="20"/>
     </row>
@@ -8730,16 +8741,16 @@
         <v>451</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="14">
       <c r="A194" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="B194" s="19" t="s">
         <v>714</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>715</v>
       </c>
       <c r="C194" s="20"/>
     </row>
@@ -8748,7 +8759,7 @@
         <v>228</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C195" s="20"/>
     </row>
@@ -8757,7 +8768,7 @@
         <v>104</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C196" s="20"/>
     </row>
@@ -8766,7 +8777,7 @@
         <v>158</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C197" s="20"/>
     </row>
@@ -8775,7 +8786,7 @@
         <v>159</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C198" s="20"/>
     </row>
@@ -8784,7 +8795,7 @@
         <v>482</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C199" s="20"/>
     </row>
@@ -8793,16 +8804,16 @@
         <v>229</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C200" s="20"/>
     </row>
     <row r="201" spans="1:3" ht="14">
       <c r="A201" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B201" s="19" t="s">
         <v>722</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>723</v>
       </c>
       <c r="C201" s="20"/>
     </row>
@@ -8811,7 +8822,7 @@
         <v>372</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C202" s="20"/>
     </row>
@@ -8820,7 +8831,7 @@
         <v>452</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C203" s="20"/>
     </row>
@@ -8829,7 +8840,7 @@
         <v>230</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C204" s="20"/>
     </row>
@@ -8838,7 +8849,7 @@
         <v>105</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C205" s="20"/>
     </row>
@@ -8847,7 +8858,7 @@
         <v>373</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C206" s="20"/>
     </row>
@@ -8856,7 +8867,7 @@
         <v>277</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C207" s="20"/>
     </row>
@@ -8865,7 +8876,7 @@
         <v>374</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C208" s="20"/>
     </row>
@@ -8874,7 +8885,7 @@
         <v>420</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C209" s="20"/>
     </row>
@@ -8883,7 +8894,7 @@
         <v>326</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C210" s="20"/>
     </row>
@@ -8892,7 +8903,7 @@
         <v>231</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C211" s="20"/>
     </row>
@@ -8901,7 +8912,7 @@
         <v>161</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C212" s="20"/>
     </row>
@@ -8910,7 +8921,7 @@
         <v>278</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C213" s="20"/>
     </row>
@@ -8919,7 +8930,7 @@
         <v>106</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C214" s="20"/>
     </row>
@@ -8928,7 +8939,7 @@
         <v>232</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C215" s="20"/>
     </row>
@@ -8937,7 +8948,7 @@
         <v>107</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C216" s="20"/>
     </row>
@@ -8946,7 +8957,7 @@
         <v>162</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C217" s="20"/>
     </row>
@@ -8955,7 +8966,7 @@
         <v>375</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C218" s="20"/>
     </row>
@@ -8964,7 +8975,7 @@
         <v>376</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C219" s="20"/>
     </row>
@@ -8973,7 +8984,7 @@
         <v>421</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C220" s="20"/>
     </row>
@@ -8982,7 +8993,7 @@
         <v>279</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C221" s="20"/>
     </row>
@@ -8991,7 +9002,7 @@
         <v>377</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C222" s="20"/>
     </row>
@@ -9000,7 +9011,7 @@
         <v>453</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C223" s="20"/>
     </row>
@@ -9009,7 +9020,7 @@
         <v>422</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C224" s="20"/>
     </row>
@@ -9018,7 +9029,7 @@
         <v>163</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C225" s="20"/>
     </row>
@@ -9027,7 +9038,7 @@
         <v>280</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C226" s="20"/>
     </row>
@@ -9036,7 +9047,7 @@
         <v>327</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C227" s="20"/>
     </row>
@@ -9045,7 +9056,7 @@
         <v>164</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C228" s="20"/>
     </row>
@@ -9054,7 +9065,7 @@
         <v>233</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C229" s="20"/>
     </row>
@@ -9063,7 +9074,7 @@
         <v>165</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C230" s="20"/>
     </row>
@@ -9072,7 +9083,7 @@
         <v>281</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C231" s="20"/>
     </row>
@@ -9081,7 +9092,7 @@
         <v>108</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C232" s="20"/>
     </row>
@@ -9090,16 +9101,16 @@
         <v>378</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C233" s="20"/>
     </row>
     <row r="234" spans="1:3" ht="14">
       <c r="A234" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="B234" s="19" t="s">
         <v>756</v>
-      </c>
-      <c r="B234" s="19" t="s">
-        <v>757</v>
       </c>
       <c r="C234" s="20"/>
     </row>
@@ -9108,7 +9119,7 @@
         <v>454</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C235" s="20"/>
     </row>
@@ -9117,7 +9128,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C236" s="20"/>
     </row>
@@ -9126,7 +9137,7 @@
         <v>166</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C237" s="20"/>
     </row>
@@ -9135,7 +9146,7 @@
         <v>109</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C238" s="20"/>
     </row>
@@ -9144,7 +9155,7 @@
         <v>455</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C239" s="20"/>
     </row>
@@ -9153,7 +9164,7 @@
         <v>379</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C240" s="20"/>
     </row>
@@ -9162,7 +9173,7 @@
         <v>110</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C241" s="20"/>
     </row>
@@ -9171,7 +9182,7 @@
         <v>235</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C242" s="20"/>
     </row>
@@ -9180,7 +9191,7 @@
         <v>167</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C243" s="20"/>
     </row>
@@ -9189,7 +9200,7 @@
         <v>168</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C244" s="20"/>
     </row>
@@ -9198,7 +9209,7 @@
         <v>380</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C245" s="20"/>
     </row>
@@ -9207,7 +9218,7 @@
         <v>236</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C246" s="20"/>
     </row>
@@ -9216,16 +9227,16 @@
         <v>169</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C247" s="20"/>
     </row>
     <row r="248" spans="1:3" ht="14">
       <c r="A248" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="B248" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>772</v>
       </c>
       <c r="C248" s="20"/>
     </row>
@@ -9234,16 +9245,16 @@
         <v>456</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C249" s="20"/>
     </row>
     <row r="250" spans="1:3" ht="14">
       <c r="A250" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="B250" s="19" t="s">
         <v>774</v>
-      </c>
-      <c r="B250" s="19" t="s">
-        <v>775</v>
       </c>
       <c r="C250" s="20"/>
     </row>
@@ -9252,16 +9263,16 @@
         <v>328</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C251" s="20"/>
     </row>
     <row r="252" spans="1:3" ht="14">
       <c r="A252" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="B252" s="19" t="s">
         <v>777</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>778</v>
       </c>
       <c r="C252" s="20"/>
     </row>
@@ -9270,7 +9281,7 @@
         <v>381</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C253" s="20"/>
     </row>
@@ -9279,7 +9290,7 @@
         <v>382</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C254" s="20"/>
     </row>
@@ -9288,7 +9299,7 @@
         <v>329</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C255" s="20"/>
     </row>
@@ -9297,7 +9308,7 @@
         <v>282</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C256" s="20"/>
     </row>
@@ -9306,7 +9317,7 @@
         <v>283</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C257" s="20"/>
     </row>
@@ -9315,7 +9326,7 @@
         <v>284</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C258" s="20"/>
     </row>
@@ -9324,7 +9335,7 @@
         <v>111</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C259" s="20"/>
     </row>
@@ -9333,7 +9344,7 @@
         <v>330</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C260" s="20"/>
     </row>
@@ -9342,7 +9353,7 @@
         <v>285</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C261" s="20"/>
     </row>
@@ -9351,7 +9362,7 @@
         <v>170</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C262" s="20"/>
     </row>
@@ -9360,16 +9371,16 @@
         <v>331</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C263" s="20"/>
     </row>
     <row r="264" spans="1:3" ht="14">
       <c r="A264" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="B264" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>791</v>
       </c>
       <c r="C264" s="20"/>
     </row>
@@ -9378,7 +9389,7 @@
         <v>286</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C265" s="20"/>
     </row>
@@ -9387,7 +9398,7 @@
         <v>287</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C266" s="20"/>
     </row>
@@ -9396,7 +9407,7 @@
         <v>112</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C267" s="20"/>
     </row>
@@ -9405,7 +9416,7 @@
         <v>288</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C268" s="20"/>
     </row>
@@ -9414,7 +9425,7 @@
         <v>498</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C269" s="20"/>
     </row>
@@ -9423,7 +9434,7 @@
         <v>113</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C270" s="20"/>
     </row>
@@ -9432,7 +9443,7 @@
         <v>383</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C271" s="20"/>
     </row>
@@ -9441,7 +9452,7 @@
         <v>384</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C272" s="20"/>
     </row>
@@ -9450,7 +9461,7 @@
         <v>481</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C273" s="20"/>
     </row>
@@ -9459,7 +9470,7 @@
         <v>237</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C274" s="20"/>
     </row>
@@ -9468,16 +9479,16 @@
         <v>238</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="14">
       <c r="A276" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C276" s="20"/>
     </row>
@@ -9486,7 +9497,7 @@
         <v>332</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C277" s="20"/>
     </row>
@@ -9495,7 +9506,7 @@
         <v>82</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C278" s="20"/>
     </row>
@@ -9504,16 +9515,16 @@
         <v>458</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C279" s="20"/>
     </row>
     <row r="280" spans="1:3" ht="14">
       <c r="A280" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B280" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>808</v>
       </c>
       <c r="C280" s="20"/>
     </row>
@@ -9522,16 +9533,16 @@
         <v>239</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C281" s="20"/>
     </row>
     <row r="282" spans="1:3" ht="14">
       <c r="A282" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="B282" s="19" t="s">
         <v>810</v>
-      </c>
-      <c r="B282" s="19" t="s">
-        <v>811</v>
       </c>
       <c r="C282" s="20"/>
     </row>
@@ -9540,7 +9551,7 @@
         <v>240</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C283" s="20"/>
     </row>
@@ -9549,7 +9560,7 @@
         <v>385</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C284" s="20"/>
     </row>
@@ -9558,7 +9569,7 @@
         <v>423</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C285" s="20"/>
     </row>
@@ -9567,7 +9578,7 @@
         <v>77</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C286" s="20"/>
     </row>
@@ -9576,7 +9587,7 @@
         <v>115</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C287" s="20"/>
     </row>
@@ -9585,7 +9596,7 @@
         <v>116</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C288" s="20"/>
     </row>
@@ -9594,7 +9605,7 @@
         <v>241</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C289" s="20"/>
     </row>
@@ -9603,7 +9614,7 @@
         <v>242</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C290" s="20"/>
     </row>
@@ -9612,7 +9623,7 @@
         <v>333</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C291" s="20"/>
     </row>
@@ -9621,7 +9632,7 @@
         <v>334</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C292" s="20"/>
     </row>
@@ -9630,16 +9641,16 @@
         <v>386</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C293" s="20"/>
     </row>
     <row r="294" spans="1:3" ht="14">
       <c r="A294" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="B294" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="B294" s="21" t="s">
-        <v>824</v>
       </c>
       <c r="C294" s="20"/>
     </row>
@@ -9648,7 +9659,7 @@
         <v>117</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C295" s="20"/>
     </row>
@@ -9657,7 +9668,7 @@
         <v>335</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C296" s="20"/>
     </row>
@@ -9666,7 +9677,7 @@
         <v>171</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C297" s="20"/>
     </row>
@@ -9675,7 +9686,7 @@
         <v>289</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C298" s="20"/>
     </row>
@@ -9684,7 +9695,7 @@
         <v>459</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C299" s="20"/>
     </row>
@@ -9693,7 +9704,7 @@
         <v>387</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C300" s="20"/>
     </row>
@@ -9702,7 +9713,7 @@
         <v>243</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C301" s="20"/>
     </row>
@@ -9711,7 +9722,7 @@
         <v>388</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C302" s="20"/>
     </row>
@@ -9720,7 +9731,7 @@
         <v>496</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C303" s="20"/>
     </row>
@@ -9729,7 +9740,7 @@
         <v>389</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C304" s="20"/>
     </row>
@@ -9738,16 +9749,16 @@
         <v>119</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C305" s="20"/>
     </row>
     <row r="306" spans="1:3" ht="14">
       <c r="A306" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B306" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="B306" s="19" t="s">
-        <v>837</v>
       </c>
       <c r="C306" s="20"/>
     </row>
@@ -9756,7 +9767,7 @@
         <v>244</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C307" s="20"/>
     </row>
@@ -9765,16 +9776,16 @@
         <v>120</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C308" s="20"/>
     </row>
     <row r="309" spans="1:3" ht="14">
       <c r="A309" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="B309" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="B309" s="19" t="s">
-        <v>841</v>
       </c>
       <c r="C309" s="20"/>
     </row>
@@ -9783,7 +9794,7 @@
         <v>121</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C310" s="20"/>
     </row>
@@ -9792,7 +9803,7 @@
         <v>245</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C311" s="20"/>
     </row>
@@ -9801,7 +9812,7 @@
         <v>390</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C312" s="20"/>
     </row>
@@ -9810,7 +9821,7 @@
         <v>122</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C313" s="20"/>
     </row>
@@ -9819,7 +9830,7 @@
         <v>391</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C314" s="20"/>
     </row>
@@ -9828,7 +9839,7 @@
         <v>290</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C315" s="20"/>
     </row>
@@ -9837,7 +9848,7 @@
         <v>460</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C316" s="20"/>
     </row>
@@ -9846,7 +9857,7 @@
         <v>172</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C317" s="20"/>
     </row>
@@ -9855,7 +9866,7 @@
         <v>173</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C318" s="20"/>
     </row>
@@ -9864,7 +9875,7 @@
         <v>246</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C319" s="20"/>
     </row>
@@ -9873,7 +9884,7 @@
         <v>392</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C320" s="20"/>
     </row>
@@ -9882,7 +9893,7 @@
         <v>393</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C321" s="20"/>
     </row>
@@ -9891,7 +9902,7 @@
         <v>291</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C322" s="20"/>
     </row>
@@ -9900,7 +9911,7 @@
         <v>123</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C323" s="20"/>
     </row>
@@ -9909,7 +9920,7 @@
         <v>461</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C324" s="20"/>
     </row>
@@ -9918,7 +9929,7 @@
         <v>394</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C325" s="20"/>
     </row>
@@ -9927,7 +9938,7 @@
         <v>336</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C326" s="20"/>
     </row>
@@ -9936,7 +9947,7 @@
         <v>247</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C327" s="20"/>
     </row>
@@ -9945,7 +9956,7 @@
         <v>337</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C328" s="20"/>
     </row>
@@ -9954,7 +9965,7 @@
         <v>462</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C329" s="20"/>
     </row>
@@ -9963,16 +9974,16 @@
         <v>395</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C330" s="20"/>
     </row>
     <row r="331" spans="1:3" ht="14">
       <c r="A331" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="B331" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="B331" s="19" t="s">
-        <v>864</v>
       </c>
       <c r="C331" s="20"/>
     </row>
@@ -9981,7 +9992,7 @@
         <v>396</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C332" s="20"/>
     </row>
@@ -9990,7 +10001,7 @@
         <v>248</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C333" s="20"/>
     </row>
@@ -9999,7 +10010,7 @@
         <v>397</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C334" s="20"/>
     </row>
@@ -10008,7 +10019,7 @@
         <v>463</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C335" s="20"/>
     </row>
@@ -10017,7 +10028,7 @@
         <v>124</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C336" s="20"/>
     </row>
@@ -10026,7 +10037,7 @@
         <v>464</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C337" s="20"/>
     </row>
@@ -10035,7 +10046,7 @@
         <v>174</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C338" s="20"/>
     </row>
@@ -10044,7 +10055,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C339" s="20"/>
     </row>
@@ -10053,7 +10064,7 @@
         <v>424</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C340" s="20"/>
     </row>
@@ -10062,7 +10073,7 @@
         <v>307</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C341" s="20"/>
     </row>
@@ -10071,7 +10082,7 @@
         <v>249</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C342" s="20"/>
     </row>
@@ -10080,7 +10091,7 @@
         <v>250</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C343" s="20"/>
     </row>
@@ -10089,7 +10100,7 @@
         <v>339</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C344" s="20"/>
     </row>
@@ -10098,7 +10109,7 @@
         <v>487</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C345" s="20"/>
     </row>
@@ -10107,7 +10118,7 @@
         <v>251</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C346" s="20"/>
     </row>
@@ -10116,7 +10127,7 @@
         <v>292</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C347" s="20"/>
     </row>
@@ -10125,16 +10136,16 @@
         <v>340</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C348" s="20"/>
     </row>
     <row r="349" spans="1:3" ht="14">
       <c r="A349" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="B349" s="19" t="s">
         <v>882</v>
-      </c>
-      <c r="B349" s="19" t="s">
-        <v>883</v>
       </c>
       <c r="C349" s="20"/>
     </row>
@@ -10143,7 +10154,7 @@
         <v>293</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C350" s="20"/>
     </row>
@@ -10152,7 +10163,7 @@
         <v>398</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C351" s="20"/>
     </row>
@@ -10161,7 +10172,7 @@
         <v>341</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C352" s="20"/>
     </row>
@@ -10170,7 +10181,7 @@
         <v>465</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C353" s="20"/>
     </row>
@@ -10179,16 +10190,16 @@
         <v>466</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C354" s="20"/>
     </row>
     <row r="355" spans="1:3" ht="14">
       <c r="A355" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="B355" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="B355" s="21" t="s">
-        <v>890</v>
       </c>
       <c r="C355" s="20"/>
     </row>
@@ -10197,7 +10208,7 @@
         <v>467</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C356" s="20"/>
     </row>
@@ -10206,7 +10217,7 @@
         <v>477</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C357" s="20"/>
     </row>
@@ -10215,7 +10226,7 @@
         <v>425</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C358" s="20"/>
     </row>
@@ -10224,16 +10235,16 @@
         <v>342</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C359" s="20"/>
     </row>
     <row r="360" spans="1:3" ht="14">
       <c r="A360" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="B360" s="19" t="s">
         <v>895</v>
-      </c>
-      <c r="B360" s="19" t="s">
-        <v>896</v>
       </c>
       <c r="C360" s="20"/>
     </row>
@@ -10242,7 +10253,7 @@
         <v>399</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C361" s="20"/>
     </row>
@@ -10251,7 +10262,7 @@
         <v>78</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C362" s="20"/>
     </row>
@@ -10260,7 +10271,7 @@
         <v>175</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C363" s="20"/>
     </row>
@@ -10269,7 +10280,7 @@
         <v>426</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C364" s="20"/>
     </row>
@@ -10278,7 +10289,7 @@
         <v>468</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C365" s="20"/>
     </row>
@@ -10287,7 +10298,7 @@
         <v>126</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C366" s="20"/>
     </row>
@@ -10296,7 +10307,7 @@
         <v>127</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C367" s="20"/>
     </row>
@@ -10305,16 +10316,16 @@
         <v>127</v>
       </c>
       <c r="B368" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C368" s="20"/>
     </row>
     <row r="369" spans="1:3" ht="14">
       <c r="A369" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="B369" s="19" t="s">
         <v>904</v>
-      </c>
-      <c r="B369" s="19" t="s">
-        <v>905</v>
       </c>
       <c r="C369" s="20"/>
     </row>
@@ -10323,7 +10334,7 @@
         <v>252</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C370" s="20"/>
     </row>
@@ -10332,7 +10343,7 @@
         <v>400</v>
       </c>
       <c r="B371" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C371" s="20"/>
     </row>
@@ -10341,7 +10352,7 @@
         <v>128</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C372" s="20"/>
     </row>
@@ -10350,7 +10361,7 @@
         <v>176</v>
       </c>
       <c r="B373" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C373" s="20"/>
     </row>
@@ -10359,7 +10370,7 @@
         <v>492</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C374" s="20"/>
     </row>
@@ -10368,7 +10379,7 @@
         <v>469</v>
       </c>
       <c r="B375" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C375" s="20"/>
     </row>
@@ -10377,7 +10388,7 @@
         <v>177</v>
       </c>
       <c r="B376" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C376" s="20"/>
     </row>
@@ -10386,7 +10397,7 @@
         <v>401</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C377" s="20"/>
     </row>
@@ -10395,7 +10406,7 @@
         <v>427</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C378" s="20"/>
     </row>
@@ -10404,7 +10415,7 @@
         <v>470</v>
       </c>
       <c r="B379" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C379" s="20"/>
     </row>
@@ -10413,16 +10424,16 @@
         <v>402</v>
       </c>
       <c r="B380" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C380" s="20"/>
     </row>
     <row r="381" spans="1:3" ht="14">
       <c r="A381" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="B381" s="21" t="s">
         <v>917</v>
-      </c>
-      <c r="B381" s="21" t="s">
-        <v>918</v>
       </c>
       <c r="C381" s="20"/>
     </row>
@@ -10431,7 +10442,7 @@
         <v>294</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C382" s="20"/>
     </row>
@@ -10440,7 +10451,7 @@
         <v>295</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C383" s="20"/>
     </row>
@@ -10449,7 +10460,7 @@
         <v>343</v>
       </c>
       <c r="B384" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C384" s="20"/>
     </row>
@@ -10458,7 +10469,7 @@
         <v>178</v>
       </c>
       <c r="B385" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C385" s="20"/>
     </row>
@@ -10467,7 +10478,7 @@
         <v>179</v>
       </c>
       <c r="B386" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C386" s="20"/>
     </row>
@@ -10476,7 +10487,7 @@
         <v>428</v>
       </c>
       <c r="B387" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C387" s="20"/>
     </row>
@@ -10485,7 +10496,7 @@
         <v>180</v>
       </c>
       <c r="B388" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C388" s="20"/>
     </row>
@@ -10494,7 +10505,7 @@
         <v>491</v>
       </c>
       <c r="B389" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C389" s="20"/>
     </row>
@@ -10503,7 +10514,7 @@
         <v>129</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C390" s="20"/>
     </row>
@@ -10512,7 +10523,7 @@
         <v>181</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C391" s="20"/>
     </row>
@@ -10521,7 +10532,7 @@
         <v>253</v>
       </c>
       <c r="B392" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C392" s="20"/>
     </row>
@@ -10530,7 +10541,7 @@
         <v>344</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C393" s="20"/>
     </row>
@@ -10539,7 +10550,7 @@
         <v>296</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C394" s="20"/>
     </row>
@@ -10548,7 +10559,7 @@
         <v>297</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C395" s="20"/>
     </row>
@@ -10557,7 +10568,7 @@
         <v>403</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C396" s="20"/>
     </row>
@@ -10566,7 +10577,7 @@
         <v>182</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C397" s="20"/>
     </row>
@@ -10575,7 +10586,7 @@
         <v>183</v>
       </c>
       <c r="B398" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C398" s="20"/>
     </row>
@@ -10584,7 +10595,7 @@
         <v>184</v>
       </c>
       <c r="B399" s="21" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C399" s="20"/>
     </row>
@@ -10593,7 +10604,7 @@
         <v>429</v>
       </c>
       <c r="B400" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C400" s="20"/>
     </row>
@@ -10602,7 +10613,7 @@
         <v>345</v>
       </c>
       <c r="B401" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C401" s="20"/>
     </row>
@@ -10611,7 +10622,7 @@
         <v>79</v>
       </c>
       <c r="B402" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C402" s="20"/>
     </row>
@@ -10620,7 +10631,7 @@
         <v>130</v>
       </c>
       <c r="B403" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C403" s="20"/>
     </row>
@@ -10629,7 +10640,7 @@
         <v>254</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C404" s="20"/>
     </row>
@@ -10638,7 +10649,7 @@
         <v>255</v>
       </c>
       <c r="B405" s="26" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C405" s="20"/>
     </row>
@@ -10647,7 +10658,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C406" s="20"/>
     </row>
@@ -10656,16 +10667,16 @@
         <v>185</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C407" s="20"/>
     </row>
     <row r="408" spans="1:3" ht="14">
       <c r="A408" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="B408" s="19" t="s">
         <v>945</v>
-      </c>
-      <c r="B408" s="19" t="s">
-        <v>946</v>
       </c>
       <c r="C408" s="20"/>
     </row>
@@ -10674,7 +10685,7 @@
         <v>131</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C409" s="20"/>
     </row>
@@ -10683,7 +10694,7 @@
         <v>430</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C410" s="20"/>
     </row>
@@ -10692,7 +10703,7 @@
         <v>186</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C411" s="20"/>
     </row>
@@ -10701,7 +10712,7 @@
         <v>256</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C412" s="20"/>
     </row>
@@ -10710,16 +10721,16 @@
         <v>298</v>
       </c>
       <c r="B413" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C413" s="20"/>
     </row>
     <row r="414" spans="1:3" ht="14">
       <c r="A414" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="B414" s="18" t="s">
         <v>952</v>
-      </c>
-      <c r="B414" s="18" t="s">
-        <v>953</v>
       </c>
       <c r="C414" s="20"/>
     </row>
@@ -10728,7 +10739,7 @@
         <v>132</v>
       </c>
       <c r="B415" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C415" s="20"/>
     </row>
@@ -10737,16 +10748,16 @@
         <v>187</v>
       </c>
       <c r="B416" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C416" s="20"/>
     </row>
     <row r="417" spans="1:3" ht="14">
       <c r="A417" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="B417" s="18" t="s">
         <v>956</v>
-      </c>
-      <c r="B417" s="18" t="s">
-        <v>957</v>
       </c>
       <c r="C417" s="20"/>
     </row>
@@ -10755,7 +10766,7 @@
         <v>257</v>
       </c>
       <c r="B418" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C418" s="20"/>
     </row>
@@ -10764,7 +10775,7 @@
         <v>299</v>
       </c>
       <c r="B419" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C419" s="20"/>
     </row>
@@ -10773,7 +10784,7 @@
         <v>258</v>
       </c>
       <c r="B420" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C420" s="20"/>
     </row>
@@ -10782,7 +10793,7 @@
         <v>346</v>
       </c>
       <c r="B421" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C421" s="20"/>
     </row>
@@ -10791,7 +10802,7 @@
         <v>405</v>
       </c>
       <c r="B422" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C422" s="20"/>
     </row>
@@ -10800,7 +10811,7 @@
         <v>300</v>
       </c>
       <c r="B423" s="26" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C423" s="20"/>
     </row>
@@ -10809,7 +10820,7 @@
         <v>472</v>
       </c>
       <c r="B424" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C424" s="20"/>
     </row>
@@ -10818,7 +10829,7 @@
         <v>301</v>
       </c>
       <c r="B425" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C425" s="20"/>
     </row>
@@ -10827,7 +10838,7 @@
         <v>406</v>
       </c>
       <c r="B426" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C426" s="20"/>
     </row>
@@ -10836,7 +10847,7 @@
         <v>473</v>
       </c>
       <c r="B427" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C427" s="20"/>
     </row>
@@ -10845,7 +10856,7 @@
         <v>302</v>
       </c>
       <c r="B428" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C428" s="20"/>
     </row>
@@ -10854,7 +10865,7 @@
         <v>347</v>
       </c>
       <c r="B429" s="18" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C429" s="20"/>
     </row>
@@ -10863,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="B430" s="18" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C430" s="20"/>
     </row>
@@ -10872,7 +10883,7 @@
         <v>133</v>
       </c>
       <c r="B431" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C431" s="20"/>
     </row>
@@ -10881,7 +10892,7 @@
         <v>303</v>
       </c>
       <c r="B432" s="18" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C432" s="20"/>
     </row>
@@ -10890,7 +10901,7 @@
         <v>188</v>
       </c>
       <c r="B433" s="18" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C433" s="20"/>
     </row>
@@ -10899,7 +10910,7 @@
         <v>304</v>
       </c>
       <c r="B434" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C434" s="20"/>
     </row>
@@ -10908,7 +10919,7 @@
         <v>189</v>
       </c>
       <c r="B435" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C435" s="20"/>
     </row>
@@ -10917,7 +10928,7 @@
         <v>305</v>
       </c>
       <c r="B436" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C436" s="20"/>
     </row>
@@ -10926,7 +10937,7 @@
         <v>474</v>
       </c>
       <c r="B437" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C437" s="20"/>
     </row>
@@ -10935,7 +10946,7 @@
         <v>407</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C438" s="20"/>
     </row>
@@ -10944,7 +10955,7 @@
         <v>408</v>
       </c>
       <c r="B439" s="26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C439" s="20"/>
     </row>
@@ -10953,7 +10964,7 @@
         <v>488</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C440" s="20"/>
     </row>
@@ -10962,16 +10973,16 @@
         <v>475</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C441" s="20"/>
     </row>
     <row r="442" spans="1:3" ht="14">
       <c r="A442" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="B442" s="18" t="s">
         <v>980</v>
-      </c>
-      <c r="B442" s="18" t="s">
-        <v>981</v>
       </c>
       <c r="C442" s="20"/>
     </row>
@@ -10980,16 +10991,16 @@
         <v>259</v>
       </c>
       <c r="B443" s="26" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C443" s="20"/>
     </row>
     <row r="444" spans="1:3" ht="14">
       <c r="A444" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="B444" s="18" t="s">
         <v>983</v>
-      </c>
-      <c r="B444" s="18" t="s">
-        <v>984</v>
       </c>
       <c r="C444" s="20"/>
     </row>
@@ -10998,7 +11009,7 @@
         <v>409</v>
       </c>
       <c r="B445" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C445" s="20"/>
     </row>
@@ -11007,7 +11018,7 @@
         <v>260</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C446" s="20"/>
     </row>
@@ -11016,7 +11027,7 @@
         <v>261</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C447" s="20"/>
     </row>
@@ -11025,16 +11036,16 @@
         <v>410</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C448" s="20"/>
     </row>
     <row r="449" spans="1:3" ht="14">
       <c r="A449" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="B449" s="18" t="s">
         <v>989</v>
-      </c>
-      <c r="B449" s="18" t="s">
-        <v>990</v>
       </c>
       <c r="C449" s="20"/>
     </row>
@@ -11043,7 +11054,7 @@
         <v>81</v>
       </c>
       <c r="B450" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C450" s="20"/>
     </row>
@@ -11052,25 +11063,25 @@
         <v>262</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C451" s="20"/>
     </row>
     <row r="452" spans="1:3" ht="14">
       <c r="A452" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="B452" s="18" t="s">
         <v>993</v>
-      </c>
-      <c r="B452" s="18" t="s">
-        <v>994</v>
       </c>
       <c r="C452" s="20"/>
     </row>
     <row r="453" spans="1:3" ht="14">
       <c r="A453" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="B453" s="18" t="s">
         <v>995</v>
-      </c>
-      <c r="B453" s="18" t="s">
-        <v>996</v>
       </c>
       <c r="C453" s="20"/>
     </row>
@@ -11079,25 +11090,25 @@
         <v>190</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C454" s="20"/>
     </row>
     <row r="455" spans="1:3" ht="14">
       <c r="A455" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="B455" s="18" t="s">
         <v>998</v>
-      </c>
-      <c r="B455" s="18" t="s">
-        <v>999</v>
       </c>
       <c r="C455" s="20"/>
     </row>
     <row r="456" spans="1:3" ht="14">
       <c r="A456" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="B456" s="18" t="s">
         <v>1000</v>
-      </c>
-      <c r="B456" s="18" t="s">
-        <v>1001</v>
       </c>
       <c r="C456" s="20"/>
     </row>
@@ -11106,7 +11117,7 @@
         <v>191</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C457" s="20"/>
     </row>
@@ -11115,7 +11126,7 @@
         <v>263</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C458" s="20"/>
     </row>
@@ -11124,7 +11135,7 @@
         <v>411</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C459" s="20"/>
     </row>
@@ -11133,7 +11144,7 @@
         <v>306</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C460" s="20"/>
     </row>
@@ -11142,7 +11153,7 @@
         <v>264</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C461" s="20"/>
     </row>
@@ -11151,7 +11162,7 @@
         <v>412</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C462" s="20"/>
     </row>
@@ -11160,7 +11171,7 @@
         <v>75</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C463" s="20"/>
     </row>
@@ -11175,10 +11186,10 @@
     </row>
     <row r="465" spans="1:3" ht="14">
       <c r="A465" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B465" s="26" t="s">
         <v>517</v>
-      </c>
-      <c r="B465" s="26" t="s">
-        <v>518</v>
       </c>
       <c r="C465" s="20"/>
     </row>
@@ -11187,7 +11198,7 @@
         <v>83</v>
       </c>
       <c r="B466" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C466" s="20"/>
     </row>
@@ -11196,7 +11207,7 @@
         <v>204</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C467" s="20"/>
     </row>
@@ -11205,7 +11216,7 @@
         <v>493</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C468" s="20"/>
     </row>
@@ -11214,7 +11225,7 @@
         <v>192</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C469" s="20"/>
     </row>
@@ -11223,7 +11234,7 @@
         <v>314</v>
       </c>
       <c r="B470" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C470" s="20"/>
     </row>
@@ -11232,7 +11243,7 @@
         <v>85</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C471" s="20"/>
     </row>
@@ -11241,7 +11252,7 @@
         <v>95</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C472" s="20"/>
     </row>
@@ -11250,7 +11261,7 @@
         <v>114</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C473" s="20"/>
     </row>
@@ -11259,7 +11270,7 @@
         <v>118</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C474" s="20"/>
     </row>
@@ -11268,7 +11279,7 @@
         <v>125</v>
       </c>
       <c r="B475" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C475" s="20"/>
     </row>
@@ -11277,7 +11288,7 @@
         <v>135</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C476" s="20"/>
     </row>
@@ -11286,7 +11297,7 @@
         <v>145</v>
       </c>
       <c r="B477" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C477" s="20"/>
     </row>
@@ -11295,7 +11306,7 @@
         <v>152</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C478" s="20"/>
     </row>
@@ -11304,7 +11315,7 @@
         <v>156</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C479" s="20"/>
     </row>
@@ -11313,7 +11324,7 @@
         <v>160</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C480" s="20"/>
     </row>
@@ -11322,7 +11333,7 @@
         <v>193</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C481" s="20"/>
     </row>
@@ -11331,7 +11342,7 @@
         <v>201</v>
       </c>
       <c r="B482" s="30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C482" s="20"/>
     </row>
@@ -11340,7 +11351,7 @@
         <v>206</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C483" s="20"/>
     </row>
@@ -11349,23 +11360,23 @@
         <v>484</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C484" s="20"/>
     </row>
     <row r="485" spans="1:3" ht="14">
       <c r="A485" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B485" s="18"/>
       <c r="C485" s="20"/>
     </row>
     <row r="486" spans="1:3" ht="14">
       <c r="A486" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B486" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C486" s="20"/>
     </row>
@@ -11374,7 +11385,7 @@
         <v>495</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C487" s="20"/>
     </row>
@@ -11383,7 +11394,7 @@
         <v>497</v>
       </c>
       <c r="B488" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C488" s="20"/>
     </row>
@@ -11392,25 +11403,25 @@
         <v>101</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C489" s="20"/>
     </row>
     <row r="490" spans="1:3" ht="14">
       <c r="A490" s="35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B490" s="36" t="s">
         <v>1022</v>
-      </c>
-      <c r="B490" s="36" t="s">
-        <v>1023</v>
       </c>
       <c r="C490" s="20"/>
     </row>
     <row r="491" spans="1:3" ht="14">
       <c r="A491" s="33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B491" s="37" t="s">
         <v>1024</v>
-      </c>
-      <c r="B491" s="37" t="s">
-        <v>1025</v>
       </c>
       <c r="C491" s="20"/>
     </row>
@@ -11419,7 +11430,7 @@
         <v>275</v>
       </c>
       <c r="B492" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C492" s="20"/>
     </row>
@@ -11428,16 +11439,16 @@
         <v>471</v>
       </c>
       <c r="B493" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C493" s="20"/>
     </row>
     <row r="494" spans="1:3" ht="14">
       <c r="A494" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B494" s="19" t="s">
         <v>1027</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>1028</v>
       </c>
       <c r="C494" s="20"/>
     </row>
@@ -11547,1178 +11558,1178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="38" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1031</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1033</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>1035</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>1037</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1039</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>1041</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>1043</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>1045</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>1047</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>1049</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>1051</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>1053</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>1055</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>1057</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>1059</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>1061</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>1063</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>1065</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>1067</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>1069</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="16" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>1071</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>1073</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>1075</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>1077</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>1079</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>1081</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>1083</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>1085</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>1087</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="16" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>1089</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>1091</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>1093</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>1095</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>1097</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>1099</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>1101</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>1103</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="16" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>1105</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>1107</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>1109</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>1111</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>1113</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>1115</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>1117</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>1119</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>1121</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>1123</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>1125</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>1127</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>1129</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>1131</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>1133</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>1135</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>1139</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>1141</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>1143</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>1145</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>1147</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="16" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>1149</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>1151</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>1153</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="16" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>1155</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>1157</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>1159</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>1161</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>1163</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>1165</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>1167</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>1169</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>1171</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>1173</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>1175</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>1179</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>1181</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>1183</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>1187</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>1189</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>1191</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>1193</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="16" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>1195</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>1197</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>1199</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>1201</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B88" s="16" t="s">
         <v>1203</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>1205</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>1207</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>1209</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B92" s="16" t="s">
         <v>1211</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>1213</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>1215</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>1217</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>1219</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>1221</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B98" s="16" t="s">
         <v>1223</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>1225</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>1227</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>1229</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>1231</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B103" s="16" t="s">
         <v>1233</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="16" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>1235</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B105" s="16" t="s">
         <v>1237</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="16" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B106" s="16" t="s">
         <v>1239</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B107" s="16" t="s">
         <v>1241</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B108" s="16" t="s">
         <v>1243</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B109" s="16" t="s">
         <v>1245</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>1247</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="16" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B111" s="16" t="s">
         <v>1249</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B112" s="16" t="s">
         <v>1251</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>1253</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="16" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B114" s="16" t="s">
         <v>1255</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B115" s="16" t="s">
         <v>1257</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="16" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>1259</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>1261</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>1263</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>1265</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>1267</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>1269</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>1271</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>1273</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>1275</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>1277</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>1279</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>1281</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>1283</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>1285</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>1287</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="16" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>1289</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>1291</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>1293</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>1295</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>1297</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B136" s="16" t="s">
         <v>1299</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>1301</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>1303</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>1305</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="16" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>1307</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>1309</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B142" s="16" t="s">
         <v>1311</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B143" s="16" t="s">
         <v>1313</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>1315</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>1317</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B146" s="16" t="s">
         <v>1319</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B147" s="16" t="s">
         <v>1321</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -12726,2151 +12737,2151 @@
         <v>113</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>1324</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B150" s="16" t="s">
         <v>1326</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>1328</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>1330</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>1332</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>1334</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B155" s="16" t="s">
         <v>1336</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>1338</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>1340</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="16" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>1342</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B159" s="16" t="s">
         <v>1344</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>1346</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B161" s="16" t="s">
         <v>1348</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="16" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>1350</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>1352</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>1354</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>1356</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>1358</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B167" s="16" t="s">
         <v>1360</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>1362</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>1364</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>1366</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B171" s="16" t="s">
         <v>1368</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>1370</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B173" s="16" t="s">
         <v>1372</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>1374</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B175" s="16" t="s">
         <v>1376</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>1378</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B177" s="16" t="s">
         <v>1380</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>1382</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B179" s="16" t="s">
         <v>1384</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B180" s="16" t="s">
         <v>1386</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B181" s="16" t="s">
         <v>1388</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B182" s="16" t="s">
         <v>1390</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B183" s="16" t="s">
         <v>1392</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B184" s="16" t="s">
         <v>1394</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B185" s="16" t="s">
         <v>1396</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B186" s="16" t="s">
         <v>1398</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B187" s="16" t="s">
         <v>1400</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B188" s="16" t="s">
         <v>1402</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B189" s="16" t="s">
         <v>1404</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B190" s="16" t="s">
         <v>1406</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B191" s="16" t="s">
         <v>1408</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B192" s="16" t="s">
         <v>1410</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B193" s="16" t="s">
         <v>1412</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B194" s="16" t="s">
         <v>1414</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B195" s="16" t="s">
         <v>1416</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B196" s="16" t="s">
         <v>1418</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B197" s="16" t="s">
         <v>1420</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="16" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B198" s="16" t="s">
         <v>1422</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B199" s="16" t="s">
         <v>1424</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="16" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B200" s="16" t="s">
         <v>1426</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B201" s="16" t="s">
         <v>1428</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="16" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B202" s="16" t="s">
         <v>1430</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B203" s="16" t="s">
         <v>1432</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B204" s="16" t="s">
         <v>1434</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B205" s="16" t="s">
         <v>1436</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B206" s="16" t="s">
         <v>1438</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B207" s="16" t="s">
         <v>1440</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B208" s="16" t="s">
         <v>1442</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B209" s="16" t="s">
         <v>1444</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="16" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B210" s="16" t="s">
         <v>1446</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="16" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B211" s="16" t="s">
         <v>1448</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B212" s="16" t="s">
         <v>1450</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B213" s="16" t="s">
         <v>1452</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B214" s="16" t="s">
         <v>1454</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B215" s="16" t="s">
         <v>1456</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B216" s="16" t="s">
         <v>1458</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B217" s="16" t="s">
         <v>1460</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B218" s="16" t="s">
         <v>1462</v>
-      </c>
-      <c r="B218" s="16" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B219" s="16" t="s">
         <v>1464</v>
-      </c>
-      <c r="B219" s="16" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B220" s="16" t="s">
         <v>1466</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="16" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B221" s="16" t="s">
         <v>1468</v>
-      </c>
-      <c r="B221" s="16" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="16" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B222" s="16" t="s">
         <v>1470</v>
-      </c>
-      <c r="B222" s="16" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B223" s="16" t="s">
         <v>1472</v>
-      </c>
-      <c r="B223" s="16" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="16" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B224" s="16" t="s">
         <v>1474</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B225" s="16" t="s">
         <v>1476</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B226" s="16" t="s">
         <v>1478</v>
-      </c>
-      <c r="B226" s="16" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B227" s="16" t="s">
         <v>1480</v>
-      </c>
-      <c r="B227" s="16" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B228" s="16" t="s">
         <v>1482</v>
-      </c>
-      <c r="B228" s="16" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="16" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B229" s="16" t="s">
         <v>1484</v>
-      </c>
-      <c r="B229" s="16" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B230" s="16" t="s">
         <v>1486</v>
-      </c>
-      <c r="B230" s="16" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="16" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B231" s="16" t="s">
         <v>1488</v>
-      </c>
-      <c r="B231" s="16" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="16" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B232" s="16" t="s">
         <v>1490</v>
-      </c>
-      <c r="B232" s="16" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="16" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B233" s="16" t="s">
         <v>1492</v>
-      </c>
-      <c r="B233" s="16" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="16" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B234" s="16" t="s">
         <v>1494</v>
-      </c>
-      <c r="B234" s="16" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="16" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B235" s="16" t="s">
         <v>1496</v>
-      </c>
-      <c r="B235" s="16" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="16" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B236" s="16" t="s">
         <v>1498</v>
-      </c>
-      <c r="B236" s="16" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B237" s="16" t="s">
         <v>1500</v>
-      </c>
-      <c r="B237" s="16" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B238" s="16" t="s">
         <v>1502</v>
-      </c>
-      <c r="B238" s="16" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B239" s="16" t="s">
         <v>1504</v>
-      </c>
-      <c r="B239" s="16" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="16" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B240" s="16" t="s">
         <v>1506</v>
-      </c>
-      <c r="B240" s="16" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B241" s="16" t="s">
         <v>1508</v>
-      </c>
-      <c r="B241" s="16" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B242" s="16" t="s">
         <v>1510</v>
-      </c>
-      <c r="B242" s="16" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="16" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B243" s="16" t="s">
         <v>1512</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="16" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B244" s="16" t="s">
         <v>1514</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B245" s="16" t="s">
         <v>1516</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="16" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B246" s="16" t="s">
         <v>1518</v>
-      </c>
-      <c r="B246" s="16" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="16" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B247" s="16" t="s">
         <v>1520</v>
-      </c>
-      <c r="B247" s="16" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="16" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B248" s="16" t="s">
         <v>1522</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="16" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B249" s="16" t="s">
         <v>1524</v>
-      </c>
-      <c r="B249" s="16" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="16" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B250" s="16" t="s">
         <v>1526</v>
-      </c>
-      <c r="B250" s="16" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B251" s="16" t="s">
         <v>1528</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="16" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B252" s="16" t="s">
         <v>1530</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B253" s="16" t="s">
         <v>1532</v>
-      </c>
-      <c r="B253" s="16" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B254" s="16" t="s">
         <v>1534</v>
-      </c>
-      <c r="B254" s="16" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B255" s="16" t="s">
         <v>1536</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="16" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B256" s="16" t="s">
         <v>1538</v>
-      </c>
-      <c r="B256" s="16" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B257" s="16" t="s">
         <v>1540</v>
-      </c>
-      <c r="B257" s="16" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="16" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B258" s="16" t="s">
         <v>1542</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="16" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B259" s="16" t="s">
         <v>1544</v>
-      </c>
-      <c r="B259" s="16" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B260" s="16" t="s">
         <v>1546</v>
-      </c>
-      <c r="B260" s="16" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B261" s="16" t="s">
         <v>1548</v>
-      </c>
-      <c r="B261" s="16" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B262" s="16" t="s">
         <v>1550</v>
-      </c>
-      <c r="B262" s="16" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="16" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B263" s="16" t="s">
         <v>1552</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B264" s="16" t="s">
         <v>1554</v>
-      </c>
-      <c r="B264" s="16" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="16" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B265" s="16" t="s">
         <v>1556</v>
-      </c>
-      <c r="B265" s="16" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="16" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B266" s="16" t="s">
         <v>1558</v>
-      </c>
-      <c r="B266" s="16" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="16" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B267" s="16" t="s">
         <v>1560</v>
-      </c>
-      <c r="B267" s="16" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="16" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B268" s="16" t="s">
         <v>1562</v>
-      </c>
-      <c r="B268" s="16" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="16" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B269" s="16" t="s">
         <v>1564</v>
-      </c>
-      <c r="B269" s="16" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="16" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B270" s="16" t="s">
         <v>1566</v>
-      </c>
-      <c r="B270" s="16" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="16" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B271" s="16" t="s">
         <v>1568</v>
-      </c>
-      <c r="B271" s="16" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="16" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B272" s="16" t="s">
         <v>1570</v>
-      </c>
-      <c r="B272" s="16" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="16" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B273" s="16" t="s">
         <v>1572</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="16" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B274" s="16" t="s">
         <v>1574</v>
-      </c>
-      <c r="B274" s="16" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="16" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B275" s="16" t="s">
         <v>1576</v>
-      </c>
-      <c r="B275" s="16" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="16" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B276" s="16" t="s">
         <v>1578</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B277" s="16" t="s">
         <v>1580</v>
-      </c>
-      <c r="B277" s="16" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="16" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B278" s="16" t="s">
         <v>1582</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B279" s="16" t="s">
         <v>1584</v>
-      </c>
-      <c r="B279" s="16" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="16" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B280" s="16" t="s">
         <v>1586</v>
-      </c>
-      <c r="B280" s="16" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B281" s="16" t="s">
         <v>1588</v>
-      </c>
-      <c r="B281" s="16" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B282" s="16" t="s">
         <v>1590</v>
-      </c>
-      <c r="B282" s="16" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="16" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B283" s="16" t="s">
         <v>1592</v>
-      </c>
-      <c r="B283" s="16" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="16" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B284" s="16" t="s">
         <v>1594</v>
-      </c>
-      <c r="B284" s="16" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="16" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B285" s="16" t="s">
         <v>1596</v>
-      </c>
-      <c r="B285" s="16" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="16" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B286" s="16" t="s">
         <v>1598</v>
-      </c>
-      <c r="B286" s="16" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B287" s="16" t="s">
         <v>1600</v>
-      </c>
-      <c r="B287" s="16" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="16" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B288" s="16" t="s">
         <v>1602</v>
-      </c>
-      <c r="B288" s="16" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="16" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B289" s="16" t="s">
         <v>1604</v>
-      </c>
-      <c r="B289" s="16" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="16" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B290" s="16" t="s">
         <v>1606</v>
-      </c>
-      <c r="B290" s="16" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B291" s="16" t="s">
         <v>1608</v>
-      </c>
-      <c r="B291" s="16" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B292" s="16" t="s">
         <v>1610</v>
-      </c>
-      <c r="B292" s="16" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="16" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B293" s="16" t="s">
         <v>1612</v>
-      </c>
-      <c r="B293" s="16" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="16" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B294" s="16" t="s">
         <v>1614</v>
-      </c>
-      <c r="B294" s="16" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="16" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B295" s="16" t="s">
         <v>1616</v>
-      </c>
-      <c r="B295" s="16" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="16" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B296" s="16" t="s">
         <v>1618</v>
-      </c>
-      <c r="B296" s="16" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="16" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B297" s="16" t="s">
         <v>1620</v>
-      </c>
-      <c r="B297" s="16" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B298" s="16" t="s">
         <v>1622</v>
-      </c>
-      <c r="B298" s="16" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="16" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B299" s="16" t="s">
         <v>1624</v>
-      </c>
-      <c r="B299" s="16" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B300" s="16" t="s">
         <v>1626</v>
-      </c>
-      <c r="B300" s="16" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B301" s="16" t="s">
         <v>1628</v>
-      </c>
-      <c r="B301" s="16" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B302" s="16" t="s">
         <v>1630</v>
-      </c>
-      <c r="B302" s="16" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="16" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B303" s="16" t="s">
         <v>1632</v>
-      </c>
-      <c r="B303" s="16" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="16" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B304" s="16" t="s">
         <v>1634</v>
-      </c>
-      <c r="B304" s="16" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="16" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B305" s="16" t="s">
         <v>1636</v>
-      </c>
-      <c r="B305" s="16" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="16" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B306" s="16" t="s">
         <v>1638</v>
-      </c>
-      <c r="B306" s="16" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="16" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B307" s="16" t="s">
         <v>1640</v>
-      </c>
-      <c r="B307" s="16" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B308" s="16" t="s">
         <v>1642</v>
-      </c>
-      <c r="B308" s="16" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="16" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B309" s="16" t="s">
         <v>1644</v>
-      </c>
-      <c r="B309" s="16" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="16" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B310" s="16" t="s">
         <v>1646</v>
-      </c>
-      <c r="B310" s="16" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B311" s="16" t="s">
         <v>1648</v>
-      </c>
-      <c r="B311" s="16" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="16" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B312" s="16" t="s">
         <v>1650</v>
-      </c>
-      <c r="B312" s="16" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B313" s="16" t="s">
         <v>1652</v>
-      </c>
-      <c r="B313" s="16" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B314" s="16" t="s">
         <v>1654</v>
-      </c>
-      <c r="B314" s="16" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B315" s="16" t="s">
         <v>1656</v>
-      </c>
-      <c r="B315" s="16" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="16" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B316" s="16" t="s">
         <v>1658</v>
-      </c>
-      <c r="B316" s="16" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B317" s="16" t="s">
         <v>1660</v>
-      </c>
-      <c r="B317" s="16" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B318" s="16" t="s">
         <v>1662</v>
-      </c>
-      <c r="B318" s="16" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B319" s="16" t="s">
         <v>1664</v>
-      </c>
-      <c r="B319" s="16" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B320" s="16" t="s">
         <v>1666</v>
-      </c>
-      <c r="B320" s="16" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="16" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B321" s="16" t="s">
         <v>1668</v>
-      </c>
-      <c r="B321" s="16" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="16" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B322" s="16" t="s">
         <v>1670</v>
-      </c>
-      <c r="B322" s="16" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="16" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B323" s="16" t="s">
         <v>1672</v>
-      </c>
-      <c r="B323" s="16" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B324" s="16" t="s">
         <v>1674</v>
-      </c>
-      <c r="B324" s="16" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="16" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B325" s="16" t="s">
         <v>1676</v>
-      </c>
-      <c r="B325" s="16" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="16" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B326" s="16" t="s">
         <v>1678</v>
-      </c>
-      <c r="B326" s="16" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="16" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B327" s="16" t="s">
         <v>1680</v>
-      </c>
-      <c r="B327" s="16" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="16" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B328" s="16" t="s">
         <v>1682</v>
-      </c>
-      <c r="B328" s="16" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="16" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B329" s="16" t="s">
         <v>1684</v>
-      </c>
-      <c r="B329" s="16" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B330" s="16" t="s">
         <v>1686</v>
-      </c>
-      <c r="B330" s="16" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="16" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B331" s="16" t="s">
         <v>1688</v>
-      </c>
-      <c r="B331" s="16" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="16" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B332" s="16" t="s">
         <v>1690</v>
-      </c>
-      <c r="B332" s="16" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B333" s="16" t="s">
         <v>1692</v>
-      </c>
-      <c r="B333" s="16" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="16" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B334" s="16" t="s">
         <v>1694</v>
-      </c>
-      <c r="B334" s="16" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="16" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B335" s="16" t="s">
         <v>1696</v>
-      </c>
-      <c r="B335" s="16" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="16" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B336" s="16" t="s">
         <v>1698</v>
-      </c>
-      <c r="B336" s="16" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="16" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B337" s="16" t="s">
         <v>1700</v>
-      </c>
-      <c r="B337" s="16" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="16" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B338" s="16" t="s">
         <v>1702</v>
-      </c>
-      <c r="B338" s="16" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="16" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B339" s="16" t="s">
         <v>1704</v>
-      </c>
-      <c r="B339" s="16" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="16" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B340" s="16" t="s">
         <v>1706</v>
-      </c>
-      <c r="B340" s="16" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B341" s="16" t="s">
         <v>1708</v>
-      </c>
-      <c r="B341" s="16" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="16" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B342" s="16" t="s">
         <v>1710</v>
-      </c>
-      <c r="B342" s="16" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B343" s="16" t="s">
         <v>1712</v>
-      </c>
-      <c r="B343" s="16" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="16" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B344" s="16" t="s">
         <v>1714</v>
-      </c>
-      <c r="B344" s="16" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B345" s="16" t="s">
         <v>1716</v>
-      </c>
-      <c r="B345" s="16" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="16" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B346" s="16" t="s">
         <v>1718</v>
-      </c>
-      <c r="B346" s="16" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="16" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B347" s="16" t="s">
         <v>1720</v>
-      </c>
-      <c r="B347" s="16" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="16" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B348" s="16" t="s">
         <v>1722</v>
-      </c>
-      <c r="B348" s="16" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="16" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B349" s="16" t="s">
         <v>1724</v>
-      </c>
-      <c r="B349" s="16" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="16" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B350" s="16" t="s">
         <v>1726</v>
-      </c>
-      <c r="B350" s="16" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="16" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B351" s="16" t="s">
         <v>1728</v>
-      </c>
-      <c r="B351" s="16" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="16" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B352" s="16" t="s">
         <v>1730</v>
-      </c>
-      <c r="B352" s="16" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="16" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B353" s="16" t="s">
         <v>1732</v>
-      </c>
-      <c r="B353" s="16" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="16" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B354" s="16" t="s">
         <v>1734</v>
-      </c>
-      <c r="B354" s="16" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B355" s="16" t="s">
         <v>1736</v>
-      </c>
-      <c r="B355" s="16" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B356" s="16" t="s">
         <v>1738</v>
-      </c>
-      <c r="B356" s="16" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="16" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B357" s="16" t="s">
         <v>1740</v>
-      </c>
-      <c r="B357" s="16" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B358" s="16" t="s">
         <v>1742</v>
-      </c>
-      <c r="B358" s="16" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B359" s="16" t="s">
         <v>1744</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B360" s="16" t="s">
         <v>1746</v>
-      </c>
-      <c r="B360" s="16" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B361" s="16" t="s">
         <v>1748</v>
-      </c>
-      <c r="B361" s="16" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="16" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B362" s="16" t="s">
         <v>1750</v>
-      </c>
-      <c r="B362" s="16" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="16" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B363" s="16" t="s">
         <v>1752</v>
-      </c>
-      <c r="B363" s="16" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B364" s="16" t="s">
         <v>1754</v>
-      </c>
-      <c r="B364" s="16" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="16" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B365" s="16" t="s">
         <v>1756</v>
-      </c>
-      <c r="B365" s="16" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="16" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B366" s="16" t="s">
         <v>1758</v>
-      </c>
-      <c r="B366" s="16" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="16" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B367" s="16" t="s">
         <v>1760</v>
-      </c>
-      <c r="B367" s="16" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B368" s="16" t="s">
         <v>1762</v>
-      </c>
-      <c r="B368" s="16" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="16" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B369" s="16" t="s">
         <v>1764</v>
-      </c>
-      <c r="B369" s="16" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B370" s="16" t="s">
         <v>1766</v>
-      </c>
-      <c r="B370" s="16" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="16" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B371" s="16" t="s">
         <v>1768</v>
-      </c>
-      <c r="B371" s="16" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="16" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B372" s="16" t="s">
         <v>1770</v>
-      </c>
-      <c r="B372" s="16" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="16" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B373" s="16" t="s">
         <v>1772</v>
-      </c>
-      <c r="B373" s="16" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B374" s="16" t="s">
         <v>1774</v>
-      </c>
-      <c r="B374" s="16" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="16" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B375" s="16" t="s">
         <v>1776</v>
-      </c>
-      <c r="B375" s="16" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="16" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B376" s="16" t="s">
         <v>1778</v>
-      </c>
-      <c r="B376" s="16" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="16" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B377" s="16" t="s">
         <v>1780</v>
-      </c>
-      <c r="B377" s="16" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="16" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B378" s="16" t="s">
         <v>1782</v>
-      </c>
-      <c r="B378" s="16" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B379" s="16" t="s">
         <v>1784</v>
-      </c>
-      <c r="B379" s="16" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="16" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B380" s="16" t="s">
         <v>1786</v>
-      </c>
-      <c r="B380" s="16" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="16" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B381" s="16" t="s">
         <v>1788</v>
-      </c>
-      <c r="B381" s="16" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="16" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B382" s="16" t="s">
         <v>1790</v>
-      </c>
-      <c r="B382" s="16" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B383" s="16" t="s">
         <v>1792</v>
-      </c>
-      <c r="B383" s="16" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="16" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B384" s="16" t="s">
         <v>1794</v>
-      </c>
-      <c r="B384" s="16" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="16" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B385" s="16" t="s">
         <v>1796</v>
-      </c>
-      <c r="B385" s="16" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="16" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B386" s="16" t="s">
         <v>1798</v>
-      </c>
-      <c r="B386" s="16" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="16" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B387" s="16" t="s">
         <v>1800</v>
-      </c>
-      <c r="B387" s="16" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="16" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B388" s="16" t="s">
         <v>1802</v>
-      </c>
-      <c r="B388" s="16" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="16" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B389" s="16" t="s">
         <v>1804</v>
-      </c>
-      <c r="B389" s="16" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="16" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B390" s="16" t="s">
         <v>1806</v>
-      </c>
-      <c r="B390" s="16" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="16" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B391" s="16" t="s">
         <v>1808</v>
-      </c>
-      <c r="B391" s="16" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="16" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B392" s="16" t="s">
         <v>1810</v>
-      </c>
-      <c r="B392" s="16" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="16" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B393" s="16" t="s">
         <v>1812</v>
-      </c>
-      <c r="B393" s="16" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="16" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B394" s="16" t="s">
         <v>1814</v>
-      </c>
-      <c r="B394" s="16" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="16" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B395" s="16" t="s">
         <v>1816</v>
-      </c>
-      <c r="B395" s="16" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="16" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B396" s="16" t="s">
         <v>1818</v>
-      </c>
-      <c r="B396" s="16" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="16" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B397" s="16" t="s">
         <v>1820</v>
-      </c>
-      <c r="B397" s="16" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="16" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B398" s="16" t="s">
         <v>1822</v>
-      </c>
-      <c r="B398" s="16" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="16" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B399" s="16" t="s">
         <v>1824</v>
-      </c>
-      <c r="B399" s="16" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="16" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B400" s="16" t="s">
         <v>1826</v>
-      </c>
-      <c r="B400" s="16" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="16" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B401" s="16" t="s">
         <v>1828</v>
-      </c>
-      <c r="B401" s="16" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="16" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B402" s="16" t="s">
         <v>1830</v>
-      </c>
-      <c r="B402" s="16" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B403" s="16" t="s">
         <v>1832</v>
-      </c>
-      <c r="B403" s="16" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="16" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B404" s="16" t="s">
         <v>1834</v>
-      </c>
-      <c r="B404" s="16" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="16" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B405" s="16" t="s">
         <v>1836</v>
-      </c>
-      <c r="B405" s="16" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="16" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B406" s="16" t="s">
         <v>1838</v>
-      </c>
-      <c r="B406" s="16" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="16" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B407" s="16" t="s">
         <v>1840</v>
-      </c>
-      <c r="B407" s="16" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B408" s="16" t="s">
         <v>1842</v>
-      </c>
-      <c r="B408" s="16" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="16" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B409" s="16" t="s">
         <v>1844</v>
-      </c>
-      <c r="B409" s="16" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="16" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B410" s="16" t="s">
         <v>1846</v>
-      </c>
-      <c r="B410" s="16" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="16" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B411" s="16" t="s">
         <v>1848</v>
-      </c>
-      <c r="B411" s="16" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="16" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B412" s="16" t="s">
         <v>1850</v>
-      </c>
-      <c r="B412" s="16" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="16" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B413" s="16" t="s">
         <v>1852</v>
-      </c>
-      <c r="B413" s="16" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="16" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B414" s="16" t="s">
         <v>1854</v>
-      </c>
-      <c r="B414" s="16" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="16" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B415" s="16" t="s">
         <v>1856</v>
-      </c>
-      <c r="B415" s="16" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B416" s="16" t="s">
         <v>1858</v>
-      </c>
-      <c r="B416" s="16" t="s">
-        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -14886,7 +14897,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -14909,7 +14920,7 @@
         <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>68</v>
